--- a/pesquisa_cep.xlsx
+++ b/pesquisa_cep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cep-correios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC378CC6-4B8B-4B47-8FE0-8BD7CB5EAC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D02CCC-DD87-4B5A-9F48-CF3175A010EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Endereco</t>
   </si>
@@ -35,16 +35,7 @@
     <t>CEP</t>
   </si>
   <si>
-    <t>Rua Aparecida Levy</t>
-  </si>
-  <si>
-    <t>Jardim Cardoso</t>
-  </si>
-  <si>
-    <t>Sorocaba/SP</t>
-  </si>
-  <si>
-    <t>18078-458</t>
+    <t> 18047620</t>
   </si>
 </sst>
 </file>
@@ -371,17 +362,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -398,20 +390,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -419,51 +397,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>18078458</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13272857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17800000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18086310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17800002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>17800004</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18078540</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17800006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>17800008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17800010</v>
-      </c>
+        <v>18110650</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>